--- a/python/project/lottery_tickets/统计分析历史中奖数据.xlsx
+++ b/python/project/lottery_tickets/统计分析历史中奖数据.xlsx
@@ -543,151 +543,151 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="L2">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="P2">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="R2">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="S2">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="U2">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="V2">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="W2">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="X2">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Y2">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="AA2">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="AB2">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AC2">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="AD2">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="AF2">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="AG2">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="AH2">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="AI2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AK2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AL2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AM2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AN2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AO2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AP2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AQ2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AR2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AS2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AU2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AV2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AX2">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -695,151 +695,151 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q3">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="U3">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="W3">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="X3">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="Y3">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="Z3">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="AA3">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="AB3">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="AC3">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="AD3">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="AE3">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AF3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="AG3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="AH3">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="AI3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AJ3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AK3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AL3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AM3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AP3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AQ3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AR3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AS3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AU3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AV3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AW3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AX3">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -847,151 +847,151 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="N4">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q4">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="R4">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="S4">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="X4">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="Y4">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="Z4">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="AA4">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="AB4">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="AC4">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="AF4">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="AG4">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="AH4">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="AI4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AJ4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AL4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AM4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AN4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AO4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AP4">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AQ4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AS4">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AT4">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AU4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AV4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AX4">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -999,151 +999,151 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I5">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="L5">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="N5">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="O5">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="P5">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q5">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="R5">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="S5">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="T5">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="U5">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="V5">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="W5">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="X5">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="Y5">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="Z5">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="AA5">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="AB5">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="AC5">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="AD5">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="AE5">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="AF5">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="AG5">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="AH5">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="AI5">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="AJ5">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="AK5">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="AL5">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="AM5">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="AN5">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="AO5">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="AP5">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="AQ5">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="AR5">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="AS5">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="AT5">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="AU5">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="AV5">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="AW5">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AX5">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
